--- a/biology/Histoire de la zoologie et de la botanique/Herman_Spöring/Herman_Spöring.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Herman_Spöring/Herman_Spöring.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Herman_Sp%C3%B6ring</t>
+          <t>Herman_Spöring</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herman Spöring est un naturaliste, un explorateur et un illustrateur finlandais, né en 1733 à Turku et mort en 1771.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Herman_Sp%C3%B6ring</t>
+          <t>Herman_Spöring</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’un professeur de médecine à l’Académie de Turku, Herman Spöring, le vieux (1701-1747), également naturaliste amateur. Le jeune Herman étudie dans cette Académie où il suit les cours de médecine donné par son père.
 Vers 1755, alors qu’il est âgé de 22 ans, Spöring part à Londres où il travaille comme horloger. Il se lie alors d’amitié avec le naturaliste suédois Daniel Solander (1733-1782), qui l’emploie durant un temps comme secrétaire personnel.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Herman_Sp%C3%B6ring</t>
+          <t>Herman_Spöring</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Le voyage dans le Pacifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’expédition quitte l’Angleterre en 1768 pour les îles de la Société, qu’elle atteint en 1769 ; le navire HM Endeavour est commandé par le lieutenant James Cook (1728-1779). L’observation du transit de Vénus est faite le 3 juin. Spöring doit réparer le quadrant astronomique après qu’il a été abîmé par des Polynésiens qui s’en étaient emparés.
 L’expédition quitte les îles de la Société et atteint la Nouvelle-Zélande que Spöring et les autres naturalistes explorent durant plusieurs mois, récoltant des spécimens naturels et réalisant de nombreuses observations. Dans la baie connue aujourd’hui sous le nom de Tolaga Bay (pas très loin de la ville actuelle de Gisborne), Cook donne le nom de Spöring à une île servant de repère, l'île Spöring. Cette île est aujourd’hui connue par son nom māori originel, Pourewa.
